--- a/ANOTAÇÕES AULAS/4-Tecnologia de Rede/04-29-2024/BINÁRIO P DECIMAL.xlsx
+++ b/ANOTAÇÕES AULAS/4-Tecnologia de Rede/04-29-2024/BINÁRIO P DECIMAL.xlsx
@@ -192,32 +192,8 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -233,6 +209,30 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5919,8 +5919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5932,850 +5932,795 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="4">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="K3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="4">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="L3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="4">
-        <v>0</v>
-      </c>
-      <c r="J3" s="4">
+      <c r="M3" s="2">
         <v>1</v>
       </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4">
-        <v>1</v>
-      </c>
-      <c r="N3" s="4">
+      <c r="N3" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>2</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>2</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>2</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>2</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>2</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" s="4">
+      <c r="K6" s="2">
         <v>2</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="2">
         <v>2</v>
       </c>
-      <c r="M6" s="4">
+      <c r="M6" s="2">
         <v>2</v>
       </c>
-      <c r="N6" s="4">
+      <c r="N6" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+      <c r="B7" s="12">
         <v>4096</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="10">
         <v>2048</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="10">
         <v>1024</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="10">
         <v>512</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="10">
         <v>256</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="10">
         <v>128</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="10">
         <v>64</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="10">
         <v>32</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="10">
         <v>16</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K7" s="10">
         <v>8</v>
       </c>
-      <c r="L7" s="5">
+      <c r="L7" s="10">
         <v>4</v>
       </c>
-      <c r="M7" s="5">
+      <c r="M7" s="10">
         <v>2</v>
       </c>
-      <c r="N7" s="7">
+      <c r="N7" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="10"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="8"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="9"/>
     </row>
     <row r="9" spans="2:16" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="B9" s="14"/>
-      <c r="C9" s="15">
-        <v>2048</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13">
-        <v>256</v>
-      </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14">
-        <v>64</v>
-      </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14">
-        <v>16</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14">
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6">
+        <v>32</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6">
+        <v>8</v>
+      </c>
+      <c r="L9" s="6">
+        <v>4</v>
+      </c>
+      <c r="M9" s="6">
         <v>2</v>
       </c>
-      <c r="N9" s="14"/>
-      <c r="P9" s="11">
+      <c r="N9" s="6"/>
+      <c r="P9" s="3">
         <f>SUM(B9:N9:N9)</f>
-        <v>2386</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="2:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2">
         <v>0</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>1</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>1</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="2">
         <v>0</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="2">
         <v>1</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J13" s="2">
         <v>1</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="2">
         <v>0</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L13" s="2">
         <v>1</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M13" s="2">
         <v>0</v>
       </c>
-      <c r="N13" s="4">
+      <c r="N13" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="15"/>
+      <c r="N15" s="15"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="2:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>2</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>2</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="2">
         <v>2</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>2</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="2">
         <v>2</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="2">
         <v>2</v>
       </c>
-      <c r="J16" s="4">
+      <c r="J16" s="2">
         <v>2</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="2">
         <v>2</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <v>2</v>
       </c>
-      <c r="M16" s="4">
+      <c r="M16" s="2">
         <v>2</v>
       </c>
-      <c r="N16" s="4">
+      <c r="N16" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
+      <c r="B17" s="12">
         <v>4096</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="10">
         <v>2048</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="10">
         <v>1024</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="10">
         <v>512</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="10">
         <v>256</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="10">
         <v>128</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="10">
         <v>64</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="10">
         <v>32</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="10">
         <v>16</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="10">
         <v>8</v>
       </c>
-      <c r="L17" s="5">
+      <c r="L17" s="10">
         <v>4</v>
       </c>
-      <c r="M17" s="5">
+      <c r="M17" s="10">
         <v>2</v>
       </c>
-      <c r="N17" s="7">
+      <c r="N17" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="10"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="8"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="9"/>
     </row>
     <row r="19" spans="2:16" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="12">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="4">
         <v>512</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F19" s="5">
         <v>256</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="5">
         <v>128</v>
       </c>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14">
+      <c r="H19" s="6"/>
+      <c r="I19" s="6">
         <v>32</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="6">
         <v>16</v>
       </c>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14">
+      <c r="K19" s="6"/>
+      <c r="L19" s="6">
         <v>4</v>
       </c>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14">
+      <c r="M19" s="6"/>
+      <c r="N19" s="6">
         <v>1</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="3">
         <f>SUM(B19:N19:N19)</f>
         <v>949</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="2:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="2">
         <v>0</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <v>0</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="2">
         <v>1</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="2">
         <v>1</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="2">
         <v>0</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="2">
         <v>1</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="2">
         <v>0</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="2">
         <v>1</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="2:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>2</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>2</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>2</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="2">
         <v>2</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="2">
         <v>2</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26" s="2">
         <v>2</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26" s="2">
         <v>2</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="2">
         <v>2</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="2">
         <v>2</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26" s="2">
         <v>2</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="9">
+      <c r="B27" s="12">
         <v>4096</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="10">
         <v>2048</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="10">
         <v>1024</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="10">
         <v>512</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="10">
         <v>256</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="10">
         <v>128</v>
       </c>
-      <c r="H27" s="5">
+      <c r="H27" s="10">
         <v>64</v>
       </c>
-      <c r="I27" s="5">
+      <c r="I27" s="10">
         <v>32</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="10">
         <v>16</v>
       </c>
-      <c r="K27" s="5">
+      <c r="K27" s="10">
         <v>8</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="10">
         <v>4</v>
       </c>
-      <c r="M27" s="5">
+      <c r="M27" s="10">
         <v>2</v>
       </c>
-      <c r="N27" s="7">
+      <c r="N27" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="8"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="9"/>
     </row>
     <row r="29" spans="2:16" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="12">
+      <c r="B29" s="6"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="4">
         <v>512</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="14">
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="6">
         <v>64</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="6">
         <v>32</v>
       </c>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14">
+      <c r="J29" s="6"/>
+      <c r="K29" s="6">
         <v>8</v>
       </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14">
+      <c r="L29" s="6"/>
+      <c r="M29" s="6">
         <v>2</v>
       </c>
-      <c r="N29" s="14"/>
-      <c r="P29" s="11">
+      <c r="N29" s="6"/>
+      <c r="P29" s="3">
         <f>SUM(B29:N29:N29)</f>
         <v>618</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="2:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2">
         <v>1</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="2">
         <v>0</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="2">
         <v>0</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="2">
         <v>1</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="2">
         <v>1</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J33" s="2">
         <v>0</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="2">
         <v>1</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="2">
         <v>0</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M33" s="2">
         <v>1</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N33" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15"/>
+      <c r="K35" s="15"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="15"/>
+      <c r="N35" s="15"/>
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="2:16" ht="46.5" x14ac:dyDescent="0.7">
-      <c r="B36" s="4">
+      <c r="B36" s="2">
         <v>2</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>2</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="2">
         <v>2</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="2">
         <v>2</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="2">
         <v>2</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="2">
         <v>2</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="2">
         <v>2</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="2">
         <v>2</v>
       </c>
-      <c r="J36" s="4">
+      <c r="J36" s="2">
         <v>2</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="2">
         <v>2</v>
       </c>
-      <c r="L36" s="4">
+      <c r="L36" s="2">
         <v>2</v>
       </c>
-      <c r="M36" s="4">
+      <c r="M36" s="2">
         <v>2</v>
       </c>
-      <c r="N36" s="4">
+      <c r="N36" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="9">
+      <c r="B37" s="12">
         <v>4096</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="10">
         <v>2048</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="10">
         <v>1024</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="10">
         <v>512</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="10">
         <v>256</v>
       </c>
-      <c r="G37" s="5">
+      <c r="G37" s="10">
         <v>128</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="10">
         <v>64</v>
       </c>
-      <c r="I37" s="5">
+      <c r="I37" s="10">
         <v>32</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="10">
         <v>16</v>
       </c>
-      <c r="K37" s="5">
+      <c r="K37" s="10">
         <v>8</v>
       </c>
-      <c r="L37" s="5">
+      <c r="L37" s="10">
         <v>4</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="10">
         <v>2</v>
       </c>
-      <c r="N37" s="7">
+      <c r="N37" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="8"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="9"/>
     </row>
     <row r="39" spans="2:16" ht="46.5" x14ac:dyDescent="0.25">
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="12">
+      <c r="B39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="4">
         <v>512</v>
       </c>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="14">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="6">
         <v>64</v>
       </c>
-      <c r="I39" s="14">
+      <c r="I39" s="6">
         <v>32</v>
       </c>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14">
+      <c r="J39" s="6"/>
+      <c r="K39" s="6">
         <v>8</v>
       </c>
-      <c r="L39" s="14"/>
-      <c r="M39" s="14">
+      <c r="L39" s="6"/>
+      <c r="M39" s="6">
         <v>2</v>
       </c>
-      <c r="N39" s="14"/>
-      <c r="P39" s="11">
+      <c r="N39" s="6"/>
+      <c r="P39" s="3">
         <f>SUM(B39:N39:N39)</f>
         <v>618</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="B32:N32"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J17:J18"/>
-    <mergeCell ref="K17:K18"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="N17:N18"/>
-    <mergeCell ref="B22:N22"/>
-    <mergeCell ref="B12:N12"/>
-    <mergeCell ref="B15:N15"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
     <mergeCell ref="L7:L8"/>
     <mergeCell ref="M7:M8"/>
     <mergeCell ref="N7:N8"/>
@@ -6791,6 +6736,51 @@
     <mergeCell ref="I7:I8"/>
     <mergeCell ref="J7:J8"/>
     <mergeCell ref="K7:K8"/>
+    <mergeCell ref="B22:N22"/>
+    <mergeCell ref="B12:N12"/>
+    <mergeCell ref="B15:N15"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:J18"/>
+    <mergeCell ref="K17:K18"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="N17:N18"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/ANOTAÇÕES AULAS/4-Tecnologia de Rede/04-29-2024/BINÁRIO P DECIMAL.xlsx
+++ b/ANOTAÇÕES AULAS/4-Tecnologia de Rede/04-29-2024/BINÁRIO P DECIMAL.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="2">
   <si>
     <t>BINÁRIO</t>
   </si>
@@ -210,22 +210,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -233,6 +227,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5627,6 +5627,5042 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="CaixaDeTexto 111"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5297261" y="10078811"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="113" name="CaixaDeTexto 112"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5890532" y="10088336"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="114" name="CaixaDeTexto 113"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6493329" y="10078811"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="115" name="CaixaDeTexto 114"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5909582" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="116" name="CaixaDeTexto 115"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4072618" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="117" name="CaixaDeTexto 116"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4665889" y="10278836"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="118" name="CaixaDeTexto 117"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5268686" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="119" name="CaixaDeTexto 118"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6502854" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="120" name="CaixaDeTexto 119"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115175" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="121" name="CaixaDeTexto 120"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7717971" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="122" name="CaixaDeTexto 121"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8330293" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="123" name="CaixaDeTexto 122"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2189389" y="10278836"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="124" name="CaixaDeTexto 123"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2801711" y="10278836"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="CaixaDeTexto 124"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3431721" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="126" name="CaixaDeTexto 125"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="983796" y="10269311"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="127" name="CaixaDeTexto 126"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1577068" y="10278836"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="128" name="CaixaDeTexto 127"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5297261" y="10078811"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="CaixaDeTexto 128"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5890532" y="10088336"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="CaixaDeTexto 129"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6493329" y="10078811"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="CaixaDeTexto 130"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5909582" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="CaixaDeTexto 131"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4072618" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="CaixaDeTexto 132"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4665889" y="10278836"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="134" name="CaixaDeTexto 133"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5268686" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="CaixaDeTexto 134"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6502854" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="CaixaDeTexto 135"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115175" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="CaixaDeTexto 136"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7717971" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="CaixaDeTexto 137"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8330293" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="CaixaDeTexto 138"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2189389" y="10278836"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="CaixaDeTexto 139"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2801711" y="10278836"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="CaixaDeTexto 140"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3431721" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="CaixaDeTexto 141"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="983796" y="10269311"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="CaixaDeTexto 142"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1577068" y="10278836"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="CaixaDeTexto 143"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5297261" y="10078811"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="CaixaDeTexto 144"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5890532" y="10088336"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="CaixaDeTexto 145"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6493329" y="10078811"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="CaixaDeTexto 146"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5909582" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="CaixaDeTexto 147"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4072618" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="CaixaDeTexto 148"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4665889" y="10278836"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="CaixaDeTexto 149"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5268686" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="CaixaDeTexto 150"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6502854" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="CaixaDeTexto 151"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115175" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="CaixaDeTexto 152"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7717971" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="CaixaDeTexto 153"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8330293" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="CaixaDeTexto 154"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2189389" y="10278836"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="CaixaDeTexto 155"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2801711" y="10278836"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="CaixaDeTexto 156"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3431721" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="CaixaDeTexto 157"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="983796" y="10269311"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="CaixaDeTexto 158"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1577068" y="10278836"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="CaixaDeTexto 159"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5297261" y="10078811"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="CaixaDeTexto 160"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5890532" y="10088336"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="CaixaDeTexto 161"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6493329" y="10078811"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="CaixaDeTexto 162"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5909582" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="CaixaDeTexto 163"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4072618" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="CaixaDeTexto 164"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4665889" y="10278836"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="CaixaDeTexto 165"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5268686" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="CaixaDeTexto 166"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6502854" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="CaixaDeTexto 167"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115175" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="CaixaDeTexto 168"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7717971" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="CaixaDeTexto 169"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8330293" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="CaixaDeTexto 170"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2189389" y="10278836"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="CaixaDeTexto 171"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2801711" y="10278836"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="CaixaDeTexto 172"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3431721" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="CaixaDeTexto 173"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="983796" y="10269311"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="CaixaDeTexto 174"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1577068" y="10278836"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="210" name="CaixaDeTexto 209"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2322739" y="9964511"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="211" name="CaixaDeTexto 210"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5297261" y="10078811"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="212" name="CaixaDeTexto 211"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5890532" y="10088336"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="213" name="CaixaDeTexto 212"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6493329" y="10078811"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="214" name="CaixaDeTexto 213"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5909582" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="215" name="CaixaDeTexto 214"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4072618" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="216" name="CaixaDeTexto 215"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4665889" y="10278836"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="217" name="CaixaDeTexto 216"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5268686" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="218" name="CaixaDeTexto 217"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6502854" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="219" name="CaixaDeTexto 218"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115175" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="220" name="CaixaDeTexto 219"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7717971" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="221" name="CaixaDeTexto 220"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8330293" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="222" name="CaixaDeTexto 221"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2189389" y="10278836"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="223" name="CaixaDeTexto 222"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2801711" y="10278836"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="224" name="CaixaDeTexto 223"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3431721" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="225" name="CaixaDeTexto 224"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="983796" y="10269311"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="226" name="CaixaDeTexto 225"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1577068" y="10278836"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="227" name="CaixaDeTexto 226"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2322739" y="9964511"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="228" name="CaixaDeTexto 227"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5297261" y="10078811"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="229" name="CaixaDeTexto 228"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5890532" y="10088336"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="184731" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="230" name="CaixaDeTexto 229"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6493329" y="10078811"/>
+          <a:ext cx="184731" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="pt-BR" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="231" name="CaixaDeTexto 230"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5909582" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>4</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="232" name="CaixaDeTexto 231"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4072618" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>7</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="233" name="CaixaDeTexto 232"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4665889" y="10278836"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>6</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="234" name="CaixaDeTexto 233"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5268686" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="235" name="CaixaDeTexto 234"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6502854" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>3</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="236" name="CaixaDeTexto 235"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7115175" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="237" name="CaixaDeTexto 236"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7717971" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="238" name="CaixaDeTexto 237"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8330293" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>0</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="239" name="CaixaDeTexto 238"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2189389" y="10278836"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="240" name="CaixaDeTexto 239"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2801711" y="10278836"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>9</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="256160" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="241" name="CaixaDeTexto 240"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3431721" y="10269311"/>
+          <a:ext cx="256160" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>8</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="242" name="CaixaDeTexto 241"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="983796" y="10269311"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>12</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="327654" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="243" name="CaixaDeTexto 242"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1577068" y="10278836"/>
+          <a:ext cx="327654" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100" b="1"/>
+            <a:t>11</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5917,10 +10953,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:P39"/>
+  <dimension ref="B2:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5932,21 +10968,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
       <c r="O2" s="1"/>
     </row>
     <row r="3" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.7">
@@ -5981,21 +11017,21 @@
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="1"/>
     </row>
     <row r="6" spans="2:16" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.7">
@@ -6040,60 +11076,60 @@
       </c>
     </row>
     <row r="7" spans="2:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
+      <c r="B7" s="14">
         <v>4096</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <v>2048</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="8">
         <v>1024</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <v>512</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="8">
         <v>256</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <v>128</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="8">
         <v>64</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="8">
         <v>32</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <v>16</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="8">
         <v>8</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="8">
         <v>4</v>
       </c>
-      <c r="M7" s="10">
+      <c r="M7" s="8">
         <v>2</v>
       </c>
-      <c r="N7" s="8">
+      <c r="N7" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:16" ht="8.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="9"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="2:16" ht="46.5" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
@@ -6123,21 +11159,21 @@
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
       <c r="O12" s="1"/>
     </row>
     <row r="13" spans="2:16" ht="46.5" x14ac:dyDescent="0.7">
@@ -6178,21 +11214,21 @@
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
       <c r="O15" s="1"/>
     </row>
     <row r="16" spans="2:16" ht="46.5" x14ac:dyDescent="0.7">
@@ -6237,60 +11273,60 @@
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B17" s="12">
+      <c r="B17" s="14">
         <v>4096</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>2048</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>1024</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>512</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <v>256</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="8">
         <v>128</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="8">
         <v>64</v>
       </c>
-      <c r="I17" s="10">
+      <c r="I17" s="8">
         <v>32</v>
       </c>
-      <c r="J17" s="10">
+      <c r="J17" s="8">
         <v>16</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="8">
         <v>8</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="8">
         <v>4</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="8">
         <v>2</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="13"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="9"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="11"/>
     </row>
     <row r="19" spans="2:16" ht="46.5" x14ac:dyDescent="0.25">
       <c r="B19" s="6"/>
@@ -6326,21 +11362,21 @@
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="1"/>
     </row>
     <row r="23" spans="2:16" ht="46.5" x14ac:dyDescent="0.7">
@@ -6379,21 +11415,21 @@
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="15"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="15"/>
-      <c r="N25" s="15"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
       <c r="O25" s="1"/>
     </row>
     <row r="26" spans="2:16" ht="46.5" x14ac:dyDescent="0.7">
@@ -6438,60 +11474,60 @@
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="12">
+      <c r="B27" s="14">
         <v>4096</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>2048</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>1024</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>512</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <v>256</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="8">
         <v>128</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="8">
         <v>64</v>
       </c>
-      <c r="I27" s="10">
+      <c r="I27" s="8">
         <v>32</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="8">
         <v>16</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="8">
         <v>8</v>
       </c>
-      <c r="L27" s="10">
+      <c r="L27" s="8">
         <v>4</v>
       </c>
-      <c r="M27" s="10">
+      <c r="M27" s="8">
         <v>2</v>
       </c>
-      <c r="N27" s="8">
+      <c r="N27" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="13"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="9"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="11"/>
     </row>
     <row r="29" spans="2:16" ht="46.5" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
@@ -6523,21 +11559,21 @@
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="12"/>
+      <c r="N32" s="12"/>
       <c r="O32" s="1"/>
     </row>
     <row r="33" spans="2:16" ht="46.5" x14ac:dyDescent="0.7">
@@ -6576,21 +11612,21 @@
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13"/>
       <c r="O35" s="1"/>
     </row>
     <row r="36" spans="2:16" ht="46.5" x14ac:dyDescent="0.7">
@@ -6635,60 +11671,60 @@
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B37" s="12">
+      <c r="B37" s="14">
         <v>4096</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="8">
         <v>2048</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>1024</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <v>512</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="8">
         <v>256</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="8">
         <v>128</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="8">
         <v>64</v>
       </c>
-      <c r="I37" s="10">
+      <c r="I37" s="8">
         <v>32</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="8">
         <v>16</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="8">
         <v>8</v>
       </c>
-      <c r="L37" s="10">
+      <c r="L37" s="8">
         <v>4</v>
       </c>
-      <c r="M37" s="10">
+      <c r="M37" s="8">
         <v>2</v>
       </c>
-      <c r="N37" s="8">
+      <c r="N37" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B38" s="13"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="11"/>
-      <c r="N38" s="9"/>
+      <c r="B38" s="15"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="11"/>
     </row>
     <row r="39" spans="2:16" ht="46.5" x14ac:dyDescent="0.25">
       <c r="B39" s="6"/>
@@ -6719,23 +11755,239 @@
         <v>618</v>
       </c>
     </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B41" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="12"/>
+      <c r="N41" s="12"/>
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="2:16" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2">
+        <v>0</v>
+      </c>
+      <c r="H42" s="2">
+        <v>0</v>
+      </c>
+      <c r="I42" s="2">
+        <v>0</v>
+      </c>
+      <c r="J42" s="2">
+        <v>1</v>
+      </c>
+      <c r="K42" s="2">
+        <v>1</v>
+      </c>
+      <c r="L42" s="2">
+        <v>0</v>
+      </c>
+      <c r="M42" s="2">
+        <v>0</v>
+      </c>
+      <c r="N42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B44" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="2:16" ht="46.5" x14ac:dyDescent="0.7">
+      <c r="B45" s="2">
+        <v>2</v>
+      </c>
+      <c r="C45" s="2">
+        <v>2</v>
+      </c>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2">
+        <v>2</v>
+      </c>
+      <c r="G45" s="2">
+        <v>2</v>
+      </c>
+      <c r="H45" s="2">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2">
+        <v>2</v>
+      </c>
+      <c r="J45" s="2">
+        <v>2</v>
+      </c>
+      <c r="K45" s="2">
+        <v>2</v>
+      </c>
+      <c r="L45" s="2">
+        <v>2</v>
+      </c>
+      <c r="M45" s="2">
+        <v>2</v>
+      </c>
+      <c r="N45" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B46" s="14">
+        <v>4096</v>
+      </c>
+      <c r="C46" s="8">
+        <v>2048</v>
+      </c>
+      <c r="D46" s="8">
+        <v>1024</v>
+      </c>
+      <c r="E46" s="8">
+        <v>512</v>
+      </c>
+      <c r="F46" s="8">
+        <v>256</v>
+      </c>
+      <c r="G46" s="8">
+        <v>128</v>
+      </c>
+      <c r="H46" s="8">
+        <v>64</v>
+      </c>
+      <c r="I46" s="8">
+        <v>32</v>
+      </c>
+      <c r="J46" s="8">
+        <v>16</v>
+      </c>
+      <c r="K46" s="8">
+        <v>8</v>
+      </c>
+      <c r="L46" s="8">
+        <v>4</v>
+      </c>
+      <c r="M46" s="8">
+        <v>2</v>
+      </c>
+      <c r="N46" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B47" s="15"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" spans="2:16" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="B48" s="6"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6">
+        <v>16</v>
+      </c>
+      <c r="K48" s="6">
+        <v>8</v>
+      </c>
+      <c r="L48" s="6"/>
+      <c r="M48" s="6"/>
+      <c r="N48" s="6"/>
+      <c r="P48" s="3">
+        <f>SUM(B48:N48:N48)</f>
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="60">
-    <mergeCell ref="L7:L8"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="N7:N8"/>
-    <mergeCell ref="B2:N2"/>
-    <mergeCell ref="B5:N5"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="K7:K8"/>
+  <mergeCells count="75">
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N46:N47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="B41:N41"/>
+    <mergeCell ref="B44:N44"/>
+    <mergeCell ref="K37:K38"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:L28"/>
+    <mergeCell ref="M27:M28"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="B32:N32"/>
+    <mergeCell ref="B35:N35"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="N37:N38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="I37:I38"/>
+    <mergeCell ref="J37:J38"/>
+    <mergeCell ref="B25:N25"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
     <mergeCell ref="B22:N22"/>
     <mergeCell ref="B12:N12"/>
     <mergeCell ref="B15:N15"/>
@@ -6752,35 +12004,21 @@
     <mergeCell ref="L17:L18"/>
     <mergeCell ref="M17:M18"/>
     <mergeCell ref="N17:N18"/>
-    <mergeCell ref="B25:N25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:L28"/>
-    <mergeCell ref="M27:M28"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="B32:N32"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="N37:N38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="I37:I38"/>
-    <mergeCell ref="J37:J38"/>
-    <mergeCell ref="K37:K38"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="M37:M38"/>
+    <mergeCell ref="L7:L8"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="N7:N8"/>
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B5:N5"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="K7:K8"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
